--- a/fuentes/contenidos/grado09/guion03/SolicitudGrafica_CN_09_03_CO_REC110.xlsx
+++ b/fuentes/contenidos/grado09/guion03/SolicitudGrafica_CN_09_03_CO_REC110.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="225">
   <si>
     <t>Fecha:</t>
   </si>
@@ -600,6 +600,108 @@
   </si>
   <si>
     <t>CN_09_03_CO_REC110</t>
+  </si>
+  <si>
+    <t>Fósil</t>
+  </si>
+  <si>
+    <t>Excavación de fósil</t>
+  </si>
+  <si>
+    <t>Cola de humanos, patas de serpiente</t>
+  </si>
+  <si>
+    <t>Canguros</t>
+  </si>
+  <si>
+    <t>Pinzones de Darwin en islas</t>
+  </si>
+  <si>
+    <t>Glucosa</t>
+  </si>
+  <si>
+    <t>ADN entre organismos</t>
+  </si>
+  <si>
+    <t>Bacteria patógena</t>
+  </si>
+  <si>
+    <t>Hombre tosiendo</t>
+  </si>
+  <si>
+    <t>Embrión</t>
+  </si>
+  <si>
+    <t>Mapa animales</t>
+  </si>
+  <si>
+    <t>Quitar los textos, o traducirlos</t>
+  </si>
+  <si>
+    <t>Ilustración</t>
+  </si>
+  <si>
+    <t>Bacteria</t>
+  </si>
+  <si>
+    <t>Dinosaurios</t>
+  </si>
+  <si>
+    <t>Sistemas anatómicos humanos</t>
+  </si>
+  <si>
+    <t>CN_09_01_CO_REC50_img08a</t>
+  </si>
+  <si>
+    <t>Huesos de extremidad anterior</t>
+  </si>
+  <si>
+    <t>http://farm1.static.flickr.com/93/242259331_425aa82d9e.jpg   y    https://s-media-cache-ak0.pinimg.com/736x/65/48/19/654819fa1ef14df8d04dbbc9d8f61350.jpg</t>
+  </si>
+  <si>
+    <t>Patas de araña y de león</t>
+  </si>
+  <si>
+    <t>Ilustrar ambas patas. Las imágenes enviadas son solo ejemplos, no tienen que ser esas.</t>
+  </si>
+  <si>
+    <t>Modificar la imagen, pues se usa en otro guion del mismo curso. Puede ser poniendo el contorno de las estructuras: el color gris de la aleta, el negro-gris de las alas de murciélago. O buscar como cambiar sin que se pierda información.</t>
+  </si>
+  <si>
+    <t>http://4.bp.blogspot.com/-R8WZPYuhKlE/UufJ2uB91oI/AAAAAAAAAcE/rdmff9sCd1g/s1600/20120929wcnp-074a.jpg</t>
+  </si>
+  <si>
+    <t>Hacer una serpiente con pequeñas patas, como las de la imagen. Se deben señalar y escribir "Patas vestigiales". Hacerlas pequeñas. Envio otros links para que se entienda: http://themetapicture.com/pic/images/2015/12/08/cool-snake-tiny-legs-hand.jpg    http://www.amnh.org/exhibitions/darwin/evolution-today/how-do-we-know-living-things-are-related/vestigial-organs      http://www.creation-vs-evolution.us/visual-evolution/snake_legs/cape_dwarf_burrowing_skink.jpg</t>
+  </si>
+  <si>
+    <t>Embriones de 4 especies</t>
+  </si>
+  <si>
+    <t>Desarrollo de feto humano</t>
+  </si>
+  <si>
+    <t>Quitar el título, y cambiar las palabras week por semana.</t>
+  </si>
+  <si>
+    <t>Mujer con bebé</t>
+  </si>
+  <si>
+    <t>http://historiaybiografias.com/archivos_varios3/galapa1.jpg    y     http://www.cotopaxinoticias.com/images/noticias/fotos/pinzones130302g.jpg</t>
+  </si>
+  <si>
+    <t>Hacer una ilustración con base en las imágenes que envío. Poner las cabezas de los pájaros en las islas, repartidas. Usar todas las islas grandes. Tratar de poner cercanas las que más se parecen. No poner el de las islas de los cocos, deben entonces quedar 13 cabezas.</t>
+  </si>
+  <si>
+    <t>Chimpancé, ADN y levadura</t>
+  </si>
+  <si>
+    <t>263098667 - 1464381 - 152366339</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Poner la hebra de ADN arriba, y el chimpancé y la levadura debajo (chimpancé a la izquierda). Hacer que las levaduras estén no en un cuadrado, sino en un írculo, como si se vieran a través de un microscopio. </t>
+  </si>
+  <si>
+    <t>Mujer tomando medicina</t>
   </si>
 </sst>
 </file>
@@ -2476,8 +2578,8 @@
   <dimension ref="A1:P108"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="140" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
+      <pane ySplit="9" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -2765,13 +2867,13 @@
         <v>M10B</v>
       </c>
     </row>
-    <row r="10" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" s="11" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="str">
         <f>IF(OR(B10&lt;&gt;"",J10&lt;&gt;""),"IMG01","")</f>
         <v>IMG01</v>
       </c>
       <c r="B10" s="62">
-        <v>1</v>
+        <v>244788457</v>
       </c>
       <c r="C10" s="20" t="str">
         <f t="shared" ref="C10:C41" si="0">IF(OR(B10&lt;&gt;"",J10&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
@@ -2799,32 +2901,40 @@
         <f ca="1">IF(OR($B10&lt;&gt;"",$J10&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E10,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E10,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v/>
       </c>
-      <c r="J10" s="63"/>
+      <c r="J10" s="63" t="s">
+        <v>191</v>
+      </c>
       <c r="K10" s="64"/>
       <c r="O10" s="2" t="str">
         <f>'Definición técnica de imagenes'!A12</f>
         <v>M12D</v>
       </c>
     </row>
-    <row r="11" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" s="11" customFormat="1" ht="27" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="str">
         <f t="shared" ref="A11:A18" si="3">IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),CONCATENATE(LEFT(A10,3),IF(MID(A10,4,2)+1&lt;10,CONCATENATE("0",MID(A10,4,2)+1))),"")</f>
-        <v/>
-      </c>
-      <c r="B11" s="62"/>
+        <v>IMG02</v>
+      </c>
+      <c r="B11" s="62">
+        <v>318706196</v>
+      </c>
       <c r="C11" s="20" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D11" s="63"/>
-      <c r="E11" s="63"/>
+        <v>Recurso F6</v>
+      </c>
+      <c r="D11" s="63" t="s">
+        <v>188</v>
+      </c>
+      <c r="E11" s="63" t="s">
+        <v>150</v>
+      </c>
       <c r="F11" s="13" t="str">
-        <f t="shared" ref="F11:F74" si="4">IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),CONCATENATE($C$7,"_",$A11,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I11="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
-        <v/>
+        <f t="shared" ref="F11:F74" ca="1" si="4">IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),CONCATENATE($C$7,"_",$A11,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I11="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
+        <v>CN_09_03_CO_REC110_IMG02.jpg</v>
       </c>
       <c r="G11" s="13" t="str">
         <f ca="1">IF($F11&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E11,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
+        <v>350 x 230 px</v>
       </c>
       <c r="H11" s="13" t="str">
         <f t="shared" ref="H11:H74" ca="1" si="5">IF(AND(I11&lt;&gt;"",I11&lt;&gt;0),IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),CONCATENATE($C$7,"_",$A11,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
@@ -2834,32 +2944,40 @@
         <f ca="1">IF(OR($B11&lt;&gt;"",$J11&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E11,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E11,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v/>
       </c>
-      <c r="J11" s="64"/>
+      <c r="J11" s="64" t="s">
+        <v>192</v>
+      </c>
       <c r="K11" s="65"/>
       <c r="O11" s="2" t="str">
         <f>'Definición técnica de imagenes'!A13</f>
         <v>M101</v>
       </c>
     </row>
-    <row r="12" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" s="11" customFormat="1" ht="27" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="B12" s="62"/>
+        <v>IMG03</v>
+      </c>
+      <c r="B12" s="62">
+        <v>234278743</v>
+      </c>
       <c r="C12" s="20" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D12" s="63"/>
-      <c r="E12" s="63"/>
+        <v>Recurso F6</v>
+      </c>
+      <c r="D12" s="63" t="s">
+        <v>188</v>
+      </c>
+      <c r="E12" s="63" t="s">
+        <v>150</v>
+      </c>
       <c r="F12" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+        <f t="shared" ca="1" si="4"/>
+        <v>CN_09_03_CO_REC110_IMG03.jpg</v>
       </c>
       <c r="G12" s="13" t="str">
         <f ca="1">IF($F12&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E12,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
+        <v>350 x 230 px</v>
       </c>
       <c r="H12" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -2869,32 +2987,40 @@
         <f ca="1">IF(OR($B12&lt;&gt;"",$J12&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E12,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E12,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v/>
       </c>
-      <c r="J12" s="64"/>
+      <c r="J12" s="64" t="s">
+        <v>200</v>
+      </c>
       <c r="K12" s="64"/>
       <c r="O12" s="2" t="str">
         <f>'Definición técnica de imagenes'!A18</f>
         <v>Diaporama F1</v>
       </c>
     </row>
-    <row r="13" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" s="11" customFormat="1" ht="27" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="B13" s="62"/>
+        <v>IMG04</v>
+      </c>
+      <c r="B13" s="62">
+        <v>210789814</v>
+      </c>
       <c r="C13" s="20" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D13" s="63"/>
-      <c r="E13" s="63"/>
+        <v>Recurso F6</v>
+      </c>
+      <c r="D13" s="63" t="s">
+        <v>203</v>
+      </c>
+      <c r="E13" s="63" t="s">
+        <v>150</v>
+      </c>
       <c r="F13" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+        <f t="shared" ca="1" si="4"/>
+        <v>CN_09_03_CO_REC110_IMG04.jpg</v>
       </c>
       <c r="G13" s="13" t="str">
         <f ca="1">IF($F13&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E13,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
+        <v>350 x 230 px</v>
       </c>
       <c r="H13" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -2904,32 +3030,42 @@
         <f ca="1">IF(OR($B13&lt;&gt;"",$J13&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E13,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E13,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v/>
       </c>
-      <c r="J13" s="64"/>
-      <c r="K13" s="64"/>
+      <c r="J13" s="64" t="s">
+        <v>201</v>
+      </c>
+      <c r="K13" s="64" t="s">
+        <v>202</v>
+      </c>
       <c r="O13" s="2" t="str">
         <f>'Definición técnica de imagenes'!A19</f>
         <v>F4</v>
       </c>
     </row>
-    <row r="14" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" s="11" customFormat="1" ht="27" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="B14" s="62"/>
+        <v>IMG05</v>
+      </c>
+      <c r="B14" s="62">
+        <v>134698571</v>
+      </c>
       <c r="C14" s="20" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D14" s="63"/>
-      <c r="E14" s="63"/>
+        <v>Recurso F6</v>
+      </c>
+      <c r="D14" s="63" t="s">
+        <v>188</v>
+      </c>
+      <c r="E14" s="63" t="s">
+        <v>150</v>
+      </c>
       <c r="F14" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+        <f t="shared" ca="1" si="4"/>
+        <v>CN_09_03_CO_REC110_IMG05.jpg</v>
       </c>
       <c r="G14" s="13" t="str">
         <f ca="1">IF($F14&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E14,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
+        <v>350 x 230 px</v>
       </c>
       <c r="H14" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -2939,32 +3075,40 @@
         <f ca="1">IF(OR($B14&lt;&gt;"",$J14&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E14,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E14,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v/>
       </c>
-      <c r="J14" s="64"/>
+      <c r="J14" s="64" t="s">
+        <v>197</v>
+      </c>
       <c r="K14" s="64"/>
       <c r="O14" s="2" t="str">
         <f>'Definición técnica de imagenes'!A22</f>
         <v>F6</v>
       </c>
     </row>
-    <row r="15" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" s="11" customFormat="1" ht="27" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="B15" s="62"/>
+        <v>IMG06</v>
+      </c>
+      <c r="B15" s="62">
+        <v>240259327</v>
+      </c>
       <c r="C15" s="20" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D15" s="63"/>
-      <c r="E15" s="63"/>
+        <v>Recurso F6</v>
+      </c>
+      <c r="D15" s="63" t="s">
+        <v>188</v>
+      </c>
+      <c r="E15" s="63" t="s">
+        <v>150</v>
+      </c>
       <c r="F15" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+        <f t="shared" ca="1" si="4"/>
+        <v>CN_09_03_CO_REC110_IMG06.jpg</v>
       </c>
       <c r="G15" s="13" t="str">
         <f ca="1">IF($F15&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E15,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
+        <v>350 x 230 px</v>
       </c>
       <c r="H15" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -2974,544 +3118,686 @@
         <f ca="1">IF(OR($B15&lt;&gt;"",$J15&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E15,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E15,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v/>
       </c>
-      <c r="J15" s="66"/>
+      <c r="J15" s="66" t="s">
+        <v>204</v>
+      </c>
       <c r="K15" s="66"/>
       <c r="O15" s="2" t="str">
         <f>'Definición técnica de imagenes'!A24</f>
         <v>F6B</v>
       </c>
     </row>
-    <row r="16" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" s="11" customFormat="1" ht="27" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="B16" s="62"/>
+        <v>IMG07</v>
+      </c>
+      <c r="B16" s="62">
+        <v>286298849</v>
+      </c>
       <c r="C16" s="20" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D16" s="63"/>
-      <c r="E16" s="63"/>
+        <v>Recurso F6</v>
+      </c>
+      <c r="D16" s="63" t="s">
+        <v>188</v>
+      </c>
+      <c r="E16" s="63" t="s">
+        <v>155</v>
+      </c>
       <c r="F16" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+        <f t="shared" ca="1" si="4"/>
+        <v>CN_09_03_CO_REC110_IMG07n.jpg</v>
       </c>
       <c r="G16" s="13" t="str">
         <f ca="1">IF($F16&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E16,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
+        <v>320 x 480 px</v>
       </c>
       <c r="H16" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v/>
+        <v>CN_09_03_CO_REC110_IMG07a.jpg</v>
       </c>
       <c r="I16" s="13" t="str">
         <f ca="1">IF(OR($B16&lt;&gt;"",$J16&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E16,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E16,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
-        <v/>
-      </c>
-      <c r="J16" s="67"/>
+        <v>800 x 458 px</v>
+      </c>
+      <c r="J16" s="67" t="s">
+        <v>192</v>
+      </c>
       <c r="K16" s="64"/>
       <c r="O16" s="2" t="str">
         <f>'Definición técnica de imagenes'!A25</f>
         <v>F7</v>
       </c>
     </row>
-    <row r="17" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" s="11" customFormat="1" ht="27" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="B17" s="62"/>
+        <v>IMG08</v>
+      </c>
+      <c r="B17" s="62">
+        <v>108683072</v>
+      </c>
       <c r="C17" s="20" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D17" s="63"/>
-      <c r="E17" s="63"/>
+        <v>Recurso F6</v>
+      </c>
+      <c r="D17" s="63" t="s">
+        <v>188</v>
+      </c>
+      <c r="E17" s="63" t="s">
+        <v>155</v>
+      </c>
       <c r="F17" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+        <f t="shared" ca="1" si="4"/>
+        <v>CN_09_03_CO_REC110_IMG08n.jpg</v>
       </c>
       <c r="G17" s="13" t="str">
         <f ca="1">IF($F17&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E17,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
+        <v>320 x 480 px</v>
       </c>
       <c r="H17" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v/>
+        <v>CN_09_03_CO_REC110_IMG08a.jpg</v>
       </c>
       <c r="I17" s="13" t="str">
         <f ca="1">IF(OR($B17&lt;&gt;"",$J17&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E17,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E17,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
-        <v/>
-      </c>
-      <c r="J17" s="66"/>
+        <v>800 x 458 px</v>
+      </c>
+      <c r="J17" s="66" t="s">
+        <v>205</v>
+      </c>
       <c r="K17" s="66"/>
       <c r="O17" s="2" t="str">
         <f>'Definición técnica de imagenes'!A27</f>
         <v>F7B</v>
       </c>
     </row>
-    <row r="18" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" s="11" customFormat="1" ht="27" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="B18" s="62"/>
+        <v>IMG09</v>
+      </c>
+      <c r="B18" s="62">
+        <v>392287459</v>
+      </c>
       <c r="C18" s="20" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D18" s="63"/>
-      <c r="E18" s="63"/>
+        <v>Recurso F6</v>
+      </c>
+      <c r="D18" s="63" t="s">
+        <v>188</v>
+      </c>
+      <c r="E18" s="63" t="s">
+        <v>155</v>
+      </c>
       <c r="F18" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+        <f t="shared" ca="1" si="4"/>
+        <v>CN_09_03_CO_REC110_IMG09n.jpg</v>
       </c>
       <c r="G18" s="13" t="str">
         <f ca="1">IF($F18&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E18,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
+        <v>320 x 480 px</v>
       </c>
       <c r="H18" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v/>
+        <v>CN_09_03_CO_REC110_IMG09a.jpg</v>
       </c>
       <c r="I18" s="13" t="str">
         <f ca="1">IF(OR($B18&lt;&gt;"",$J18&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E18,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E18,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
-        <v/>
-      </c>
-      <c r="J18" s="66"/>
+        <v>800 x 458 px</v>
+      </c>
+      <c r="J18" s="66" t="s">
+        <v>206</v>
+      </c>
       <c r="K18" s="64"/>
       <c r="O18" s="2" t="str">
         <f>'Definición técnica de imagenes'!A30</f>
         <v>F8</v>
       </c>
     </row>
-    <row r="19" spans="1:15" s="11" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" s="11" customFormat="1" ht="99.75" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="str">
         <f t="shared" ref="A19:A50" si="6">IF(OR(B19&lt;&gt;"",J19&lt;&gt;""),CONCATENATE(LEFT(A18,3),IF(MID(A18,4,2)+1&lt;10,CONCATENATE("0",MID(A18,4,2)+1),MID(A18,4,2)+1)),"")</f>
-        <v/>
-      </c>
-      <c r="B19" s="62"/>
+        <v>IMG10</v>
+      </c>
+      <c r="B19" s="62" t="s">
+        <v>207</v>
+      </c>
       <c r="C19" s="20" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D19" s="63"/>
-      <c r="E19" s="63"/>
+        <v>Recurso F6</v>
+      </c>
+      <c r="D19" s="63" t="s">
+        <v>203</v>
+      </c>
+      <c r="E19" s="63" t="s">
+        <v>155</v>
+      </c>
       <c r="F19" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+        <f t="shared" ca="1" si="4"/>
+        <v>CN_09_03_CO_REC110_IMG10n.jpg</v>
       </c>
       <c r="G19" s="13" t="str">
         <f ca="1">IF($F19&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E19,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
+        <v>320 x 480 px</v>
       </c>
       <c r="H19" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v/>
+        <v>CN_09_03_CO_REC110_IMG10a.jpg</v>
       </c>
       <c r="I19" s="13" t="str">
         <f ca="1">IF(OR($B19&lt;&gt;"",$J19&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E19,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E19,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
-        <v/>
-      </c>
-      <c r="J19" s="67"/>
-      <c r="K19" s="68"/>
+        <v>800 x 458 px</v>
+      </c>
+      <c r="J19" s="67" t="s">
+        <v>208</v>
+      </c>
+      <c r="K19" s="68" t="s">
+        <v>212</v>
+      </c>
       <c r="O19" s="2" t="str">
         <f>'Definición técnica de imagenes'!A31</f>
         <v>F10</v>
       </c>
     </row>
-    <row r="20" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" s="11" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="str">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="B20" s="62"/>
+        <v>IMG11</v>
+      </c>
+      <c r="B20" s="62" t="s">
+        <v>209</v>
+      </c>
       <c r="C20" s="20" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D20" s="63"/>
-      <c r="E20" s="63"/>
+        <v>Recurso F6</v>
+      </c>
+      <c r="D20" s="63" t="s">
+        <v>203</v>
+      </c>
+      <c r="E20" s="63" t="s">
+        <v>155</v>
+      </c>
       <c r="F20" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+        <f t="shared" ca="1" si="4"/>
+        <v>CN_09_03_CO_REC110_IMG11n.jpg</v>
       </c>
       <c r="G20" s="13" t="str">
         <f ca="1">IF($F20&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E20,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
+        <v>320 x 480 px</v>
       </c>
       <c r="H20" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v/>
+        <v>CN_09_03_CO_REC110_IMG11a.jpg</v>
       </c>
       <c r="I20" s="13" t="str">
         <f ca="1">IF(OR($B20&lt;&gt;"",$J20&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E20,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E20,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
-        <v/>
-      </c>
-      <c r="J20" s="64"/>
-      <c r="K20" s="66"/>
+        <v>800 x 458 px</v>
+      </c>
+      <c r="J20" s="64" t="s">
+        <v>210</v>
+      </c>
+      <c r="K20" s="66" t="s">
+        <v>211</v>
+      </c>
       <c r="O20" s="2" t="str">
         <f>'Definición técnica de imagenes'!A32</f>
         <v>F10B</v>
       </c>
     </row>
-    <row r="21" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" s="11" customFormat="1" ht="229.5" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="str">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="B21" s="62"/>
+        <v>IMG12</v>
+      </c>
+      <c r="B21" s="62" t="s">
+        <v>213</v>
+      </c>
       <c r="C21" s="20" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D21" s="63"/>
-      <c r="E21" s="63"/>
+        <v>Recurso F6</v>
+      </c>
+      <c r="D21" s="63" t="s">
+        <v>203</v>
+      </c>
+      <c r="E21" s="63" t="s">
+        <v>155</v>
+      </c>
       <c r="F21" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+        <f t="shared" ca="1" si="4"/>
+        <v>CN_09_03_CO_REC110_IMG12n.jpg</v>
       </c>
       <c r="G21" s="13" t="str">
         <f ca="1">IF($F21&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E21,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
+        <v>320 x 480 px</v>
       </c>
       <c r="H21" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v/>
+        <v>CN_09_03_CO_REC110_IMG12a.jpg</v>
       </c>
       <c r="I21" s="13" t="str">
         <f ca="1">IF(OR($B21&lt;&gt;"",$J21&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E21,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E21,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
-        <v/>
-      </c>
-      <c r="J21" s="66"/>
-      <c r="K21" s="66"/>
+        <v>800 x 458 px</v>
+      </c>
+      <c r="J21" s="66" t="s">
+        <v>193</v>
+      </c>
+      <c r="K21" s="66" t="s">
+        <v>214</v>
+      </c>
       <c r="O21" s="2" t="str">
         <f>'Definición técnica de imagenes'!A33</f>
         <v>F11</v>
       </c>
     </row>
-    <row r="22" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" s="11" customFormat="1" ht="27" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="str">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="B22" s="62"/>
+        <v>IMG13</v>
+      </c>
+      <c r="B22" s="62">
+        <v>398266753</v>
+      </c>
       <c r="C22" s="20" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D22" s="63"/>
-      <c r="E22" s="63"/>
+        <v>Recurso F6</v>
+      </c>
+      <c r="D22" s="63" t="s">
+        <v>203</v>
+      </c>
+      <c r="E22" s="63" t="s">
+        <v>155</v>
+      </c>
       <c r="F22" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+        <f t="shared" ca="1" si="4"/>
+        <v>CN_09_03_CO_REC110_IMG13n.jpg</v>
       </c>
       <c r="G22" s="13" t="str">
         <f ca="1">IF($F22&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E22,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
+        <v>320 x 480 px</v>
       </c>
       <c r="H22" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v/>
+        <v>CN_09_03_CO_REC110_IMG13a.jpg</v>
       </c>
       <c r="I22" s="13" t="str">
         <f ca="1">IF(OR($B22&lt;&gt;"",$J22&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E22,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E22,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
-        <v/>
-      </c>
-      <c r="J22" s="63"/>
-      <c r="K22" s="69"/>
+        <v>800 x 458 px</v>
+      </c>
+      <c r="J22" s="63" t="s">
+        <v>216</v>
+      </c>
+      <c r="K22" s="69" t="s">
+        <v>217</v>
+      </c>
       <c r="O22" s="2" t="str">
         <f>'Definición técnica de imagenes'!A34</f>
         <v>F12</v>
       </c>
     </row>
-    <row r="23" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" s="11" customFormat="1" ht="27" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="str">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="B23" s="62"/>
+        <v>IMG14</v>
+      </c>
+      <c r="B23" s="62">
+        <v>243774694</v>
+      </c>
       <c r="C23" s="20" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D23" s="63"/>
-      <c r="E23" s="63"/>
+        <v>Recurso F6</v>
+      </c>
+      <c r="D23" s="63" t="s">
+        <v>188</v>
+      </c>
+      <c r="E23" s="63" t="s">
+        <v>155</v>
+      </c>
       <c r="F23" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+        <f t="shared" ca="1" si="4"/>
+        <v>CN_09_03_CO_REC110_IMG14n.jpg</v>
       </c>
       <c r="G23" s="13" t="str">
         <f ca="1">IF($F23&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E23,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
+        <v>320 x 480 px</v>
       </c>
       <c r="H23" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v/>
+        <v>CN_09_03_CO_REC110_IMG14a.jpg</v>
       </c>
       <c r="I23" s="13" t="str">
         <f ca="1">IF(OR($B23&lt;&gt;"",$J23&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E23,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E23,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
-        <v/>
-      </c>
-      <c r="J23" s="64"/>
+        <v>800 x 458 px</v>
+      </c>
+      <c r="J23" s="64" t="s">
+        <v>215</v>
+      </c>
       <c r="K23" s="64"/>
       <c r="O23" s="2" t="str">
         <f>'Definición técnica de imagenes'!A35</f>
         <v>F13</v>
       </c>
     </row>
-    <row r="24" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" s="11" customFormat="1" ht="27" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="str">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="B24" s="62"/>
+        <v>IMG15</v>
+      </c>
+      <c r="B24" s="62">
+        <v>198693392</v>
+      </c>
       <c r="C24" s="20" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D24" s="63"/>
-      <c r="E24" s="63"/>
+        <v>Recurso F6</v>
+      </c>
+      <c r="D24" s="63" t="s">
+        <v>188</v>
+      </c>
+      <c r="E24" s="63" t="s">
+        <v>155</v>
+      </c>
       <c r="F24" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+        <f t="shared" ca="1" si="4"/>
+        <v>CN_09_03_CO_REC110_IMG15n.jpg</v>
       </c>
       <c r="G24" s="13" t="str">
         <f ca="1">IF($F24&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E24,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
+        <v>320 x 480 px</v>
       </c>
       <c r="H24" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v/>
+        <v>CN_09_03_CO_REC110_IMG15a.jpg</v>
       </c>
       <c r="I24" s="13" t="str">
         <f ca="1">IF(OR($B24&lt;&gt;"",$J24&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E24,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E24,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
-        <v/>
-      </c>
-      <c r="J24" s="63"/>
+        <v>800 x 458 px</v>
+      </c>
+      <c r="J24" s="63" t="s">
+        <v>218</v>
+      </c>
       <c r="K24" s="65"/>
       <c r="O24" s="2" t="str">
         <f>'Definición técnica de imagenes'!A37</f>
         <v>F13B</v>
       </c>
     </row>
-    <row r="25" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" s="11" customFormat="1" ht="108" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="str">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="B25" s="62"/>
+        <v>IMG16</v>
+      </c>
+      <c r="B25" s="62" t="s">
+        <v>219</v>
+      </c>
       <c r="C25" s="20" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D25" s="63"/>
-      <c r="E25" s="63"/>
+        <v>Recurso F6</v>
+      </c>
+      <c r="D25" s="63" t="s">
+        <v>188</v>
+      </c>
+      <c r="E25" s="63" t="s">
+        <v>155</v>
+      </c>
       <c r="F25" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+        <f t="shared" ca="1" si="4"/>
+        <v>CN_09_03_CO_REC110_IMG16n.jpg</v>
       </c>
       <c r="G25" s="13" t="str">
         <f ca="1">IF($F25&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E25,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
+        <v>320 x 480 px</v>
       </c>
       <c r="H25" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v/>
+        <v>CN_09_03_CO_REC110_IMG16a.jpg</v>
       </c>
       <c r="I25" s="13" t="str">
         <f ca="1">IF(OR($B25&lt;&gt;"",$J25&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E25,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E25,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
-        <v/>
-      </c>
-      <c r="J25" s="63"/>
-      <c r="K25" s="64"/>
-    </row>
-    <row r="26" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
+        <v>800 x 458 px</v>
+      </c>
+      <c r="J25" s="63" t="s">
+        <v>195</v>
+      </c>
+      <c r="K25" s="64" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" s="11" customFormat="1" ht="27" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="str">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="B26" s="62"/>
+        <v>IMG17</v>
+      </c>
+      <c r="B26" s="62">
+        <v>137393393</v>
+      </c>
       <c r="C26" s="20" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D26" s="63"/>
-      <c r="E26" s="63"/>
+        <v>Recurso F6</v>
+      </c>
+      <c r="D26" s="63" t="s">
+        <v>188</v>
+      </c>
+      <c r="E26" s="63" t="s">
+        <v>155</v>
+      </c>
       <c r="F26" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+        <f t="shared" ca="1" si="4"/>
+        <v>CN_09_03_CO_REC110_IMG17n.jpg</v>
       </c>
       <c r="G26" s="13" t="str">
         <f ca="1">IF($F26&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E26,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
+        <v>320 x 480 px</v>
       </c>
       <c r="H26" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v/>
+        <v>CN_09_03_CO_REC110_IMG17a.jpg</v>
       </c>
       <c r="I26" s="13" t="str">
         <f ca="1">IF(OR($B26&lt;&gt;"",$J26&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E26,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E26,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
-        <v/>
-      </c>
-      <c r="J26" s="63"/>
+        <v>800 x 458 px</v>
+      </c>
+      <c r="J26" s="63" t="s">
+        <v>194</v>
+      </c>
       <c r="K26" s="64"/>
     </row>
-    <row r="27" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" s="11" customFormat="1" ht="27" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="str">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="B27" s="62"/>
+        <v>IMG18</v>
+      </c>
+      <c r="B27" s="62">
+        <v>206936038</v>
+      </c>
       <c r="C27" s="20" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D27" s="63"/>
-      <c r="E27" s="63"/>
+        <v>Recurso F6</v>
+      </c>
+      <c r="D27" s="63" t="s">
+        <v>188</v>
+      </c>
+      <c r="E27" s="63" t="s">
+        <v>155</v>
+      </c>
       <c r="F27" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+        <f t="shared" ca="1" si="4"/>
+        <v>CN_09_03_CO_REC110_IMG18n.jpg</v>
       </c>
       <c r="G27" s="13" t="str">
         <f ca="1">IF($F27&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E27,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
+        <v>320 x 480 px</v>
       </c>
       <c r="H27" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v/>
+        <v>CN_09_03_CO_REC110_IMG18a.jpg</v>
       </c>
       <c r="I27" s="13" t="str">
         <f ca="1">IF(OR($B27&lt;&gt;"",$J27&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E27,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E27,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
-        <v/>
-      </c>
-      <c r="J27" s="64"/>
+        <v>800 x 458 px</v>
+      </c>
+      <c r="J27" s="64" t="s">
+        <v>196</v>
+      </c>
       <c r="K27" s="64"/>
       <c r="O27" s="2"/>
     </row>
-    <row r="28" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" s="11" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="str">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="B28" s="62"/>
+        <v>IMG19</v>
+      </c>
+      <c r="B28" s="62" t="s">
+        <v>222</v>
+      </c>
       <c r="C28" s="20" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D28" s="63"/>
-      <c r="E28" s="63"/>
+        <v>Recurso F6</v>
+      </c>
+      <c r="D28" s="63" t="s">
+        <v>188</v>
+      </c>
+      <c r="E28" s="63" t="s">
+        <v>155</v>
+      </c>
       <c r="F28" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+        <f t="shared" ca="1" si="4"/>
+        <v>CN_09_03_CO_REC110_IMG19n.jpg</v>
       </c>
       <c r="G28" s="13" t="str">
         <f ca="1">IF($F28&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E28,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
+        <v>320 x 480 px</v>
       </c>
       <c r="H28" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v/>
+        <v>CN_09_03_CO_REC110_IMG19a.jpg</v>
       </c>
       <c r="I28" s="13" t="str">
         <f ca="1">IF(OR($B28&lt;&gt;"",$J28&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E28,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E28,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
-        <v/>
-      </c>
-      <c r="J28" s="64"/>
-      <c r="K28" s="64"/>
-    </row>
-    <row r="29" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
+        <v>800 x 458 px</v>
+      </c>
+      <c r="J28" s="64" t="s">
+        <v>221</v>
+      </c>
+      <c r="K28" s="64" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" s="11" customFormat="1" ht="27" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="str">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="B29" s="62"/>
+        <v>IMG20</v>
+      </c>
+      <c r="B29" s="62">
+        <v>386499958</v>
+      </c>
       <c r="C29" s="20" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D29" s="63"/>
-      <c r="E29" s="63"/>
+        <v>Recurso F6</v>
+      </c>
+      <c r="D29" s="63" t="s">
+        <v>188</v>
+      </c>
+      <c r="E29" s="63" t="s">
+        <v>155</v>
+      </c>
       <c r="F29" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+        <f t="shared" ca="1" si="4"/>
+        <v>CN_09_03_CO_REC110_IMG20n.jpg</v>
       </c>
       <c r="G29" s="13" t="str">
         <f ca="1">IF($F29&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E29,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
+        <v>320 x 480 px</v>
       </c>
       <c r="H29" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v/>
+        <v>CN_09_03_CO_REC110_IMG20a.jpg</v>
       </c>
       <c r="I29" s="13" t="str">
         <f ca="1">IF(OR($B29&lt;&gt;"",$J29&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E29,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E29,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
-        <v/>
-      </c>
-      <c r="J29" s="64"/>
+        <v>800 x 458 px</v>
+      </c>
+      <c r="J29" s="64" t="s">
+        <v>198</v>
+      </c>
       <c r="K29" s="64"/>
     </row>
-    <row r="30" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" s="11" customFormat="1" ht="27" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="str">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="B30" s="62"/>
+        <v>IMG21</v>
+      </c>
+      <c r="B30" s="62">
+        <v>391580332</v>
+      </c>
       <c r="C30" s="20" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D30" s="63"/>
-      <c r="E30" s="63"/>
+        <v>Recurso F6</v>
+      </c>
+      <c r="D30" s="63" t="s">
+        <v>188</v>
+      </c>
+      <c r="E30" s="63" t="s">
+        <v>155</v>
+      </c>
       <c r="F30" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+        <f t="shared" ca="1" si="4"/>
+        <v>CN_09_03_CO_REC110_IMG21n.jpg</v>
       </c>
       <c r="G30" s="13" t="str">
         <f ca="1">IF($F30&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E30,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
+        <v>320 x 480 px</v>
       </c>
       <c r="H30" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v/>
+        <v>CN_09_03_CO_REC110_IMG21a.jpg</v>
       </c>
       <c r="I30" s="13" t="str">
         <f ca="1">IF(OR($B30&lt;&gt;"",$J30&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E30,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E30,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
-        <v/>
-      </c>
-      <c r="J30" s="64"/>
+        <v>800 x 458 px</v>
+      </c>
+      <c r="J30" s="64" t="s">
+        <v>224</v>
+      </c>
       <c r="K30" s="64"/>
     </row>
-    <row r="31" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" s="11" customFormat="1" ht="27" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="str">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="B31" s="62"/>
+        <v>IMG22</v>
+      </c>
+      <c r="B31" s="62">
+        <v>365894090</v>
+      </c>
       <c r="C31" s="20" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D31" s="63"/>
-      <c r="E31" s="63"/>
+        <v>Recurso F6</v>
+      </c>
+      <c r="D31" s="63" t="s">
+        <v>188</v>
+      </c>
+      <c r="E31" s="63" t="s">
+        <v>155</v>
+      </c>
       <c r="F31" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+        <f t="shared" ca="1" si="4"/>
+        <v>CN_09_03_CO_REC110_IMG22n.jpg</v>
       </c>
       <c r="G31" s="13" t="str">
         <f ca="1">IF($F31&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E31,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
+        <v>320 x 480 px</v>
       </c>
       <c r="H31" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v/>
+        <v>CN_09_03_CO_REC110_IMG22a.jpg</v>
       </c>
       <c r="I31" s="13" t="str">
         <f ca="1">IF(OR($B31&lt;&gt;"",$J31&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E31,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E31,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
-        <v/>
-      </c>
-      <c r="J31" s="64"/>
+        <v>800 x 458 px</v>
+      </c>
+      <c r="J31" s="64" t="s">
+        <v>199</v>
+      </c>
       <c r="K31" s="64"/>
     </row>
     <row r="32" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
